--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H2">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I2">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J2">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.399451290637182</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N2">
-        <v>0.399451290637182</v>
+        <v>2.162955</v>
       </c>
       <c r="O2">
-        <v>0.1054928779790186</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P2">
-        <v>0.1054928779790186</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q2">
-        <v>34.57740043456436</v>
+        <v>80.03302211729002</v>
       </c>
       <c r="R2">
-        <v>34.57740043456436</v>
+        <v>720.2971990556101</v>
       </c>
       <c r="S2">
-        <v>0.006534196137559492</v>
+        <v>0.011680378759556</v>
       </c>
       <c r="T2">
-        <v>0.006534196137559492</v>
+        <v>0.01168037875955599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H3">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I3">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J3">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94651054678161</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N3">
-        <v>2.94651054678161</v>
+        <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7781571492226148</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P3">
-        <v>0.7781571492226148</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q3">
-        <v>255.0565674683826</v>
+        <v>376.0080296709513</v>
       </c>
       <c r="R3">
-        <v>255.0565674683826</v>
+        <v>3384.072267038562</v>
       </c>
       <c r="S3">
-        <v>0.04819881243429527</v>
+        <v>0.05487630089433133</v>
       </c>
       <c r="T3">
-        <v>0.04819881243429527</v>
+        <v>0.05487630089433131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H4">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I4">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J4">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.440561938305941</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N4">
-        <v>0.440561938305941</v>
+        <v>0.350249</v>
       </c>
       <c r="O4">
-        <v>0.1163499727983666</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P4">
-        <v>0.1163499727983666</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q4">
-        <v>38.13603038491318</v>
+        <v>12.95981005779534</v>
       </c>
       <c r="R4">
-        <v>38.13603038491318</v>
+        <v>116.638290520158</v>
       </c>
       <c r="S4">
-        <v>0.007206681222740412</v>
+        <v>0.001891412895855775</v>
       </c>
       <c r="T4">
-        <v>0.007206681222740412</v>
+        <v>0.001891412895855775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>927.732656174847</v>
+        <v>111.005114</v>
       </c>
       <c r="H5">
-        <v>927.732656174847</v>
+        <v>333.015342</v>
       </c>
       <c r="I5">
-        <v>0.663839911046327</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J5">
-        <v>0.663839911046327</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.399451290637182</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N5">
-        <v>0.399451290637182</v>
+        <v>1.431185</v>
       </c>
       <c r="O5">
-        <v>0.1054928779790186</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P5">
-        <v>0.1054928779790186</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q5">
-        <v>370.5840068753036</v>
+        <v>52.95628469336334</v>
       </c>
       <c r="R5">
-        <v>370.5840068753036</v>
+        <v>476.6065622402701</v>
       </c>
       <c r="S5">
-        <v>0.07003038273361271</v>
+        <v>0.007728678070045447</v>
       </c>
       <c r="T5">
-        <v>0.07003038273361271</v>
+        <v>0.007728678070045444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>927.732656174847</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H6">
-        <v>927.732656174847</v>
+        <v>2790.450928</v>
       </c>
       <c r="I6">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J6">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.94651054678161</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N6">
-        <v>2.94651054678161</v>
+        <v>2.162955</v>
       </c>
       <c r="O6">
-        <v>0.7781571492226148</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P6">
-        <v>0.7781571492226148</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q6">
-        <v>2733.574056012904</v>
+        <v>670.6244207746934</v>
       </c>
       <c r="R6">
-        <v>2733.574056012904</v>
+        <v>6035.61978697224</v>
       </c>
       <c r="S6">
-        <v>0.516571772720004</v>
+        <v>0.09787394044144224</v>
       </c>
       <c r="T6">
-        <v>0.516571772720004</v>
+        <v>0.09787394044144221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>927.732656174847</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H7">
-        <v>927.732656174847</v>
+        <v>2790.450928</v>
       </c>
       <c r="I7">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J7">
-        <v>0.663839911046327</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.440561938305941</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N7">
-        <v>0.440561938305941</v>
+        <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.1163499727983666</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P7">
-        <v>0.1163499727983666</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q7">
-        <v>408.7236972341097</v>
+        <v>3150.701553355934</v>
       </c>
       <c r="R7">
-        <v>408.7236972341097</v>
+        <v>28356.31398020341</v>
       </c>
       <c r="S7">
-        <v>0.07723775559271022</v>
+        <v>0.4598275377829111</v>
       </c>
       <c r="T7">
-        <v>0.07723775559271022</v>
+        <v>0.459827537782911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.5315113984222</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H8">
-        <v>69.5315113984222</v>
+        <v>2790.450928</v>
       </c>
       <c r="I8">
-        <v>0.04975333360793763</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J8">
-        <v>0.04975333360793763</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.399451290637182</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N8">
-        <v>0.399451290637182</v>
+        <v>0.350249</v>
       </c>
       <c r="O8">
-        <v>0.1054928779790186</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P8">
-        <v>0.1054928779790186</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q8">
-        <v>27.77445196805368</v>
+        <v>108.5947385645636</v>
       </c>
       <c r="R8">
-        <v>27.77445196805368</v>
+        <v>977.352647081072</v>
       </c>
       <c r="S8">
-        <v>0.005248622351351569</v>
+        <v>0.01584880395832308</v>
       </c>
       <c r="T8">
-        <v>0.005248622351351569</v>
+        <v>0.01584880395832308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.5315113984222</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H9">
-        <v>69.5315113984222</v>
+        <v>2790.450928</v>
       </c>
       <c r="I9">
-        <v>0.04975333360793763</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J9">
-        <v>0.04975333360793763</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.94651054678161</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N9">
-        <v>2.94651054678161</v>
+        <v>1.431185</v>
       </c>
       <c r="O9">
-        <v>0.7781571492226148</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P9">
-        <v>0.7781571492226148</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q9">
-        <v>204.8753316691167</v>
+        <v>443.7390568210756</v>
       </c>
       <c r="R9">
-        <v>204.8753316691167</v>
+        <v>3993.65151138968</v>
       </c>
       <c r="S9">
-        <v>0.03871591224467446</v>
+        <v>0.06476127124729156</v>
       </c>
       <c r="T9">
-        <v>0.03871591224467446</v>
+        <v>0.06476127124729153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.5315113984222</v>
+        <v>72.47344466666667</v>
       </c>
       <c r="H10">
-        <v>69.5315113984222</v>
+        <v>217.420334</v>
       </c>
       <c r="I10">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="J10">
-        <v>0.04975333360793763</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.440561938305941</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N10">
-        <v>0.440561938305941</v>
+        <v>2.162955</v>
       </c>
       <c r="O10">
-        <v>0.1163499727983666</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P10">
-        <v>0.1163499727983666</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q10">
-        <v>30.63293743503051</v>
+        <v>52.25226650299668</v>
       </c>
       <c r="R10">
-        <v>30.63293743503051</v>
+        <v>470.27039852697</v>
       </c>
       <c r="S10">
-        <v>0.005788799011911601</v>
+        <v>0.00762593049286351</v>
       </c>
       <c r="T10">
-        <v>0.005788799011911601</v>
+        <v>0.007625930492863508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>313.698262912969</v>
+        <v>72.47344466666667</v>
       </c>
       <c r="H11">
-        <v>313.698262912969</v>
+        <v>217.420334</v>
       </c>
       <c r="I11">
-        <v>0.2244670655511401</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="J11">
-        <v>0.2244670655511401</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.399451290637182</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N11">
-        <v>0.399451290637182</v>
+        <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.1054928779790186</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P11">
-        <v>0.1054928779790186</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q11">
-        <v>125.3071759912275</v>
+        <v>245.4895648553638</v>
       </c>
       <c r="R11">
-        <v>125.3071759912275</v>
+        <v>2209.406083698274</v>
       </c>
       <c r="S11">
-        <v>0.02367967675649478</v>
+        <v>0.03582784984461771</v>
       </c>
       <c r="T11">
-        <v>0.02367967675649478</v>
+        <v>0.03582784984461771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>313.698262912969</v>
+        <v>72.47344466666667</v>
       </c>
       <c r="H12">
-        <v>313.698262912969</v>
+        <v>217.420334</v>
       </c>
       <c r="I12">
-        <v>0.2244670655511401</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="J12">
-        <v>0.2244670655511401</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.94651054678161</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N12">
-        <v>2.94651054678161</v>
+        <v>0.350249</v>
       </c>
       <c r="O12">
-        <v>0.7781571492226148</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P12">
-        <v>0.7781571492226148</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q12">
-        <v>924.3152401801336</v>
+        <v>8.461250507018445</v>
       </c>
       <c r="R12">
-        <v>924.3152401801336</v>
+        <v>76.15125456316601</v>
       </c>
       <c r="S12">
-        <v>0.174670651823641</v>
+        <v>0.001234872907293472</v>
       </c>
       <c r="T12">
-        <v>0.174670651823641</v>
+        <v>0.001234872907293472</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>313.698262912969</v>
+        <v>72.47344466666667</v>
       </c>
       <c r="H13">
-        <v>313.698262912969</v>
+        <v>217.420334</v>
       </c>
       <c r="I13">
-        <v>0.2244670655511401</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="J13">
-        <v>0.2244670655511401</v>
+        <v>0.04973458223193756</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.440561938305941</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N13">
-        <v>0.440561938305941</v>
+        <v>1.431185</v>
       </c>
       <c r="O13">
-        <v>0.1163499727983666</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P13">
-        <v>0.1163499727983666</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q13">
-        <v>138.2035147521443</v>
+        <v>34.57430230175445</v>
       </c>
       <c r="R13">
-        <v>138.2035147521443</v>
+        <v>311.16872071579</v>
       </c>
       <c r="S13">
-        <v>0.02611673697100431</v>
+        <v>0.005045928987162869</v>
       </c>
       <c r="T13">
-        <v>0.02611673697100431</v>
+        <v>0.005045928987162868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H14">
+        <v>1030.72615</v>
+      </c>
+      <c r="I14">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J14">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7209850000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.162955</v>
+      </c>
+      <c r="O14">
+        <v>0.1533325535399077</v>
+      </c>
+      <c r="P14">
+        <v>0.1533325535399077</v>
+      </c>
+      <c r="Q14">
+        <v>247.7126977525834</v>
+      </c>
+      <c r="R14">
+        <v>2229.41427977325</v>
+      </c>
+      <c r="S14">
+        <v>0.03615230384604601</v>
+      </c>
+      <c r="T14">
+        <v>0.036152303846046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H15">
+        <v>1030.72615</v>
+      </c>
+      <c r="I15">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J15">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.387303666666666</v>
+      </c>
+      <c r="N15">
+        <v>10.161911</v>
+      </c>
+      <c r="O15">
+        <v>0.7203810354238886</v>
+      </c>
+      <c r="P15">
+        <v>0.7203810354238885</v>
+      </c>
+      <c r="Q15">
+        <v>1163.794155741405</v>
+      </c>
+      <c r="R15">
+        <v>10474.14740167265</v>
+      </c>
+      <c r="S15">
+        <v>0.1698493469020286</v>
+      </c>
+      <c r="T15">
+        <v>0.1698493469020285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H16">
+        <v>1030.72615</v>
+      </c>
+      <c r="I16">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J16">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1167496666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.350249</v>
+      </c>
+      <c r="O16">
+        <v>0.02482926068494219</v>
+      </c>
+      <c r="P16">
+        <v>0.02482926068494219</v>
+      </c>
+      <c r="Q16">
+        <v>40.11231147903889</v>
+      </c>
+      <c r="R16">
+        <v>361.01080331135</v>
+      </c>
+      <c r="S16">
+        <v>0.005854170923469868</v>
+      </c>
+      <c r="T16">
+        <v>0.005854170923469866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H17">
+        <v>1030.72615</v>
+      </c>
+      <c r="I17">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J17">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4770616666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.431185</v>
+      </c>
+      <c r="O17">
+        <v>0.1014571503512615</v>
+      </c>
+      <c r="P17">
+        <v>0.1014571503512615</v>
+      </c>
+      <c r="Q17">
+        <v>163.9066449986389</v>
+      </c>
+      <c r="R17">
+        <v>1475.15980498775</v>
+      </c>
+      <c r="S17">
+        <v>0.02392127204676166</v>
+      </c>
+      <c r="T17">
+        <v>0.02392127204676165</v>
       </c>
     </row>
   </sheetData>
